--- a/data/trans_camb/P38_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,43</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,52</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,03</t>
+          <t>41,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,2</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>23,46</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 34,96</t>
+          <t>-26,54; 26,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 25,32</t>
+          <t>-32,73; 32,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,99; 49,13</t>
+          <t>-4,62; 29,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 47,68</t>
+          <t>23,51; 60,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,98; 37,22</t>
+          <t>-10,23; 21,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 32,96</t>
+          <t>1,44; 41,28</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>-5,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>111,09%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>177,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,9%</t>
+          <t>81,53%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 139,01</t>
+          <t>-58,52; 121,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 95,94</t>
+          <t>-61,79; 137,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,95; 196,81</t>
+          <t>-17,02; 245,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,42; 193,95</t>
+          <t>69,82; 458,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,32; 142,39</t>
+          <t>-28,55; 101,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,32; 119,99</t>
+          <t>6,33; 203,3</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,18</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,85</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,88</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>12,45</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 24,96</t>
+          <t>-6,99; 9,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 11,08</t>
+          <t>2,0; 21,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 27,08</t>
+          <t>-6,92; 8,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 15,25</t>
+          <t>4,11; 22,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 23,91</t>
+          <t>-4,46; 6,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,5</t>
+          <t>5,91; 18,46</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>111,35%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>107,0%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>107,58%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>81,73%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,26; 219,99</t>
+          <t>-40,56; 90,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 100,18</t>
+          <t>9,04; 206,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,62; 176,0</t>
+          <t>-33,34; 73,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 98,4</t>
+          <t>21,1; 177,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,94; 166,05</t>
+          <t>-25,39; 57,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 80,78</t>
+          <t>32,68; 149,55</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>23,08</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,04</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,19</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>11,91</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 31,27</t>
+          <t>-7,36; 9,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 20,57</t>
+          <t>2,73; 21,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,81; 36,73</t>
+          <t>-7,62; 8,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 27,33</t>
+          <t>2,56; 21,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 32,54</t>
+          <t>-4,77; 7,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 21,4</t>
+          <t>5,22; 19,09</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>165,03%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>167,74%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>109,75%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>165,98%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>100,81%</t>
+          <t>79,56%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>78,72; 300,19</t>
+          <t>-42,25; 92,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,0; 190,97</t>
+          <t>10,49; 211,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,52; 263,95</t>
+          <t>-38,25; 68,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,44; 194,39</t>
+          <t>12,53; 177,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>109,25; 249,57</t>
+          <t>-27,87; 61,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,23; 160,88</t>
+          <t>28,41; 155,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,78; 24,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 12,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 30,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,63; 24,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,11; 25,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>101,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>125,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>114,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>61,69; 154,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,63; 77,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,85; 168,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,46; 130,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,37; 143,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,09; 94,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10,78</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18,71</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>14,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 6,96</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 17,87</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 8,29</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 26,26</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 5,69</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 20,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62,85%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>110,47%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>87,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-27,56; 47,53</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 127,8</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-16,94; 57,13</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>61,3; 184,38</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-14,11; 38,3</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55,02; 136,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P38_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>41,3</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>23,46</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.496114832489037</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.161350756924475</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.23684610621513</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>43.51001444159105</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.776012083816923</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>25.34328554486206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-26,54; 26,97</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-32,73; 32,63</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 29,81</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>23,51; 60,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 21,01</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 41,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.51723595103251</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-32.70166451640769</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.001119097880951</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>26.40973328727713</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-8.633227204003299</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.574279525876131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,67%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,21%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>47,73%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>177,15%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,03%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>81,53%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.16321841862062</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>32.21383192222723</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>30.69386319310397</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>62.08566700944534</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>21.98705948201732</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>42.67662310766536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-58,52; 121,18</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-61,79; 137,66</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,02; 245,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>69,82; 458,52</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-28,55; 101,98</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 203,3</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.0448984978780869</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.09487233009749739</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.5444780894535527</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.935976748389573</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2090945161422646</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9174395675703618</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.549375697447878</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.6173608510873023</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1745607476962215</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.8144563909154771</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2444296220451704</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.1196557012358032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,99; 9,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 21,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 8,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 22,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 6,91</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,91; 18,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.126104492126084</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.34515283712849</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.535476685150721</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.93464786803139</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.149192382291018</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.159964950844807</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,13%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>81,72%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>83,09%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>81,73%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.6097318867315099</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.8418063368454</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.573016886316023</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>13.25007167672615</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.110120335664216</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>11.50580444913055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-40,56; 90,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,04; 206,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-33,34; 73,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>21,1; 177,12</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-25,39; 57,89</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>32,68; 149,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.459771661903492</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.681062898948968</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.99492312269799</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.812433772792986</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-4.712169009322968</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>5.212904909045519</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,02</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.851633628487024</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.89092401284392</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.390367142327241</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>22.25711753186797</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>6.976670804743054</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>17.53262841620078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,36; 9,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 21,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 8,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 21,61</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 7,44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,22; 19,09</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.03904312653109494</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.6302030424614977</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1037459602114554</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.8738885265192218</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.07218882131283522</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7481985824011992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>12,84%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>86,35%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>75,72%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,18%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>79,56%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4371348063294633</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.05587407382128182</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3007086971446249</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.2148733620103294</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2550327300630875</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.276303422138496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-42,25; 92,11</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,49; 211,9</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-38,25; 68,09</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>12,53; 177,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-27,87; 61,13</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>28,41; 155,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.85264969973158</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.775533716702431</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.832555846286673</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.887290908368191</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5858101766919506</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.402987451269357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.471760157834957</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>13.1060587836855</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.7252703933855131</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>11.94729670718353</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.517643744369537</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>12.4601399158454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.338287378162126</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>3.538537450480746</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.271353180657558</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2.57016240836106</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-4.361421418977648</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>6.062240002852032</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.20369867351636</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>23.17979734640834</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.341013997855304</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>21.10596508381927</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>7.429216120414933</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>19.80315933140379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.1899088512957707</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.006957151864065</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.04724442534451822</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.7782520457185054</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1061994121059839</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.8719171009206753</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>18,71</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>14,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3675239242818519</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.1474903885589663</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3732890649090729</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.1227894416658333</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.2708632989902672</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.3319813859281985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 6,96</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 17,87</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 8,29</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>12,14; 26,26</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 5,69</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>10,22; 20,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.091446509949283</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.378118383196761</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7272715322484137</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.817950233003045</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.6257416362737745</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.662919288944938</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>62,85%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>12,98%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>110,47%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>9,37%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>87,16%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.9454501399440013</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>10.40796359542057</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.802244187355876</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>19.21358136615918</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.932742599535389</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.95296147494298</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-27,56; 47,53</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>13,96; 127,8</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 57,13</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>61,3; 184,38</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-14,11; 38,3</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>55,02; 136,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.28808232221774</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.396861659685757</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.486970778950148</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>12.90350482446544</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-2.240569155265542</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.32661967386767</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.016901263579935</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>17.57276505113514</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.915495094836693</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>26.72471845291559</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>6.116610852491851</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>20.15640304470764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.05531234672550163</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.6089045490335417</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.1726400096960177</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.183705862720983</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.1161959036049434</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0.8989675451705661</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2691725627324761</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.1200151720489369</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1339881881295672</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.6548993533030316</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.1225980838561579</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.5639633252853948</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.4927883521663775</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.252715041726916</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.6293906583871355</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.929024889317272</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.412547162182359</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.372533138126049</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
